--- a/nr-add-is-logo/ig/ValueSet-TLSVCategory.xlsx
+++ b/nr-add-is-logo/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:09:08+00:00</t>
+    <t>2024-04-22T14:22:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
